--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -440,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,247 +510,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.704386</v>
+        <v>0.03958366666666666</v>
       </c>
       <c r="H2">
-        <v>20.113158</v>
+        <v>0.118751</v>
       </c>
       <c r="I2">
-        <v>0.9941305093849523</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9941305093849523</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.704386</v>
+        <v>0.03958366666666666</v>
       </c>
       <c r="N2">
-        <v>20.113158</v>
+        <v>0.118751</v>
       </c>
       <c r="O2">
-        <v>0.9941305093849523</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9941305093849523</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>44.94879163699599</v>
+        <v>0.001566866666777777</v>
       </c>
       <c r="R2">
-        <v>404.539124732964</v>
+        <v>0.014101800001</v>
       </c>
       <c r="S2">
-        <v>0.9882954696899847</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.9882954696899847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G3">
-        <v>6.704386</v>
-      </c>
-      <c r="H3">
-        <v>20.113158</v>
-      </c>
-      <c r="I3">
-        <v>0.9941305093849523</v>
-      </c>
-      <c r="J3">
-        <v>0.9941305093849523</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.03958366666666666</v>
-      </c>
-      <c r="N3">
-        <v>0.118751</v>
-      </c>
-      <c r="O3">
-        <v>0.005869490615047745</v>
-      </c>
-      <c r="P3">
-        <v>0.005869490615047745</v>
-      </c>
-      <c r="Q3">
-        <v>0.2653841806286666</v>
-      </c>
-      <c r="R3">
-        <v>2.388457625658</v>
-      </c>
-      <c r="S3">
-        <v>0.005835039694967611</v>
-      </c>
-      <c r="T3">
-        <v>0.005835039694967611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.03958366666666666</v>
-      </c>
-      <c r="H4">
-        <v>0.118751</v>
-      </c>
-      <c r="I4">
-        <v>0.005869490615047745</v>
-      </c>
-      <c r="J4">
-        <v>0.005869490615047745</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>6.704386</v>
-      </c>
-      <c r="N4">
-        <v>20.113158</v>
-      </c>
-      <c r="O4">
-        <v>0.9941305093849523</v>
-      </c>
-      <c r="P4">
-        <v>0.9941305093849523</v>
-      </c>
-      <c r="Q4">
-        <v>0.2653841806286666</v>
-      </c>
-      <c r="R4">
-        <v>2.388457625658</v>
-      </c>
-      <c r="S4">
-        <v>0.005835039694967611</v>
-      </c>
-      <c r="T4">
-        <v>0.005835039694967611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.03958366666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.118751</v>
-      </c>
-      <c r="I5">
-        <v>0.005869490615047745</v>
-      </c>
-      <c r="J5">
-        <v>0.005869490615047745</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.03958366666666666</v>
-      </c>
-      <c r="N5">
-        <v>0.118751</v>
-      </c>
-      <c r="O5">
-        <v>0.005869490615047745</v>
-      </c>
-      <c r="P5">
-        <v>0.005869490615047745</v>
-      </c>
-      <c r="Q5">
-        <v>0.001566866666777777</v>
-      </c>
-      <c r="R5">
-        <v>0.014101800001</v>
-      </c>
-      <c r="S5">
-        <v>3.445092008013356E-05</v>
-      </c>
-      <c r="T5">
-        <v>3.445092008013356E-05</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
